--- a/결정해야 하는 사항 정리.xlsx
+++ b/결정해야 하는 사항 정리.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haneulmun/Documents/Github/hong-bookstore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4D29093-C928-F948-AE11-D963807E156E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC251121-AE8B-8D43-BD47-633E7FF3E0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="760" windowWidth="29180" windowHeight="17240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="결정해야 하는 것" sheetId="7" r:id="rId1"/>
-    <sheet name="ERD(예시)" sheetId="9" state="hidden" r:id="rId2"/>
-    <sheet name="세부 기능 명세서(예시)" sheetId="10" state="hidden" r:id="rId3"/>
-    <sheet name="Back 단위 테스트" sheetId="11" state="hidden" r:id="rId4"/>
-    <sheet name="고민과 문제해결" sheetId="12" state="hidden" r:id="rId5"/>
-    <sheet name="Back 개발 진행도" sheetId="13" state="hidden" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId2"/>
+    <sheet name="ERD(예시)" sheetId="9" state="hidden" r:id="rId3"/>
+    <sheet name="세부 기능 명세서(예시)" sheetId="10" state="hidden" r:id="rId4"/>
+    <sheet name="Back 단위 테스트" sheetId="11" state="hidden" r:id="rId5"/>
+    <sheet name="고민과 문제해결" sheetId="12" state="hidden" r:id="rId6"/>
+    <sheet name="Back 개발 진행도" sheetId="13" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="377">
   <si>
     <t>로그인</t>
   </si>
@@ -79,13 +80,7 @@
     <t>버튼으로 추천 내용 + 입력 모두 갖고 가는게 좋을 듯 합니다.</t>
   </si>
   <si>
-    <t>아이디 &amp; 닉네임 모두 존재?</t>
-  </si>
-  <si>
     <t>아이디만 있는게 좋을 듯합니다</t>
-  </si>
-  <si>
-    <t>아이디만 있으면 수정 가능?</t>
   </si>
   <si>
     <t>그냥 수정 못하게 하는 것도 좋을 듯 합니다.</t>
@@ -1226,12 +1221,164 @@
   <si>
     <t>2022.09.03</t>
   </si>
+  <si>
+    <t>결론</t>
+  </si>
+  <si>
+    <t>거래를 위해 등록한 장소 리스트를 홍익지도에서 활용하기</t>
+  </si>
+  <si>
+    <t>거래 예정 장소가 홍익 지도에서 필요할 경우가 얼마나 있을지 전 좀 회의적입니다. 교통 수단 위주로 정하다보니 역이나 정거장 위주로 나오지 않을까 싶은데 지도에서 의미를 부여해 줄 정도일지 모르겠네요.</t>
+  </si>
+  <si>
+    <t>→
+거래 예정 장소를 홍익지도에 표시하자는 말씀이시죠?
+저는 좋은 것 같습니다</t>
+  </si>
+  <si>
+    <t>현위치, 주소 입력 두 가지 방법으로 다수의 장소 등록은 좋은 거 같습니다</t>
+  </si>
+  <si>
+    <t>두 가지 다 하는게 맞는 것 같습니다.</t>
+  </si>
+  <si>
+    <t>양쪽 모두 구현할 수 있다면 둘 다 가능하게 하는 것이 베스트라고 생각합니다</t>
+  </si>
+  <si>
+    <t>위치 등록 방법 : 주소 입력 + 현위치</t>
+  </si>
+  <si>
+    <t>3개 정도면 충분한 거 같고 1장만 해도 솔직히 괜찮은 거 같습니다</t>
+  </si>
+  <si>
+    <t>개인적으로 한 장이면 족하다 보는데 3장도 괜찮은 것 같습니다.</t>
+  </si>
+  <si>
+    <t>저도 3개 동의합니다</t>
+  </si>
+  <si>
+    <t>장소 코멘트 달 때 사진 등록 3개</t>
+  </si>
+  <si>
+    <t>일단 버스, 지하철, 도보 다 보여줄 수 있도록 생각해서 구현해보고 싫패하면 단순히 가이드만 뽑혀도 괜찮을 거 같습니다</t>
+  </si>
+  <si>
+    <t>교통수단 여부가 있는게 좋은 것 같습니다.</t>
+  </si>
+  <si>
+    <t>저도 구현만 할 수 있다면 사용자 편의를 위해 표시해주는 것이 좋다고 생각합니다</t>
+  </si>
+  <si>
+    <t>교통수단 + 도보 모두 적용</t>
+  </si>
+  <si>
+    <t>둘 다 가는 거 좋은 거 같습니다(단, 버튼이 우선이 사용하기 편해보입니다)</t>
+  </si>
+  <si>
+    <t>버튼 위주로 만들고 채팅을 보조 수단으로 쓸 수 있으면 좋을 것 같습니다.</t>
+  </si>
+  <si>
+    <t>FAQ 질문에 대응하는 버튼 우선 + 질문하고자 하는 내용이 없을 시 직접 입력으로 가는게 좋은것 같습니다</t>
+  </si>
+  <si>
+    <t>AI chatbot 대화 방식 결정 - 버튼 + 입력</t>
+  </si>
+  <si>
+    <t>미인증 회원이 책 찜이나 장소 카테고리에 저장 기능 사용 가능 여부</t>
+  </si>
+  <si>
+    <t>미인증회원은 단순 조회만 가능한 게 어떨까요? 저도 비회원과 회원의 차이가 있는 게 좋을 거 같습니다</t>
+  </si>
+  <si>
+    <t>미인증 회원이면 어뷰징 가능성이 있지 않을까싶어서 저는 거부하는게 좋을 것 같습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미인증 회원 = 우리 사이트에 가입한 타 학교 학생 등
+이라고 가정한다면 도서 거래 관련 기능(찜)은 막아두더라도 지도 관련 기능은 오픈해주는 것이 좋다고 생각합니다 </t>
+  </si>
+  <si>
+    <t>저는 가능해도 좋을 듯 합니다. 비회원과의 차별점을 주는 것도 좋을 듯 해서요</t>
+  </si>
+  <si>
+    <t>아이디 &amp; 닉네임 모두 존재? 아이디만 있으면 수정 가능?</t>
+  </si>
+  <si>
+    <t>일단 아이디만 있고 수정을 못하게 만들고 이후에 상황을 봐도 좋을 거 같습니다. ex) 만약 소셜 로그인을 할 때 실명이 나오거나 하는 문제 등</t>
+  </si>
+  <si>
+    <t>저도 닉네임은 투머치 아닐까 싶습니다. 차라리 에타처럼 익명을 키는 편이 낫다고 생각합니다.</t>
+  </si>
+  <si>
+    <t>일단은 고유 아이디만 가지고 진행해보고 예외 사항이 발생한다면 그때 조정하는 편이 나을 것 같습니다</t>
+  </si>
+  <si>
+    <t>아이디만 존재하며 이는 바뀌지 않음</t>
+  </si>
+  <si>
+    <t>수정 가능해도 된다고 봅니다.</t>
+  </si>
+  <si>
+    <t>평가는 직관적으로 평점만 하는 게 어떨까 싶습니다</t>
+  </si>
+  <si>
+    <t>점수만 있으면 기준이 모호한 것 같고, 점수마다 어떤 수준인지 한 마디로 덧붙여주는 정도가 있으면 좋을 것 같습니다. (원활했다. 지지부진했다 등등)</t>
+  </si>
+  <si>
+    <t>당근처럼 몇가지 고를 수 있게 하는것도 괜찮을 듯 합니다
+ex) 약속시간을 잘 지켜요, 책의 상태가 설명과 같아요 등...</t>
+  </si>
+  <si>
+    <t>평점 + 선택이 좋아보입니다. 굳이 입력란은 필요 없을것도 같구요</t>
+  </si>
+  <si>
+    <t>판매자가 신고 처리하는 기능 등은 수행하는데 책을 구하거나 사고 팔거나 지도를 보거나 그런것도 하려나요?</t>
+  </si>
+  <si>
+    <t>비회원은 회원가입이랑 검색 및 조회 정도, 미인증 회원은 챗봇까지 쓸 수 있게 하고 인증해야 나머지 다 풀려서 나머지 직접 상호작용할 수 있게 하면 어떨까 생각했는데, 액터 유형마다 차이를 뚜렷하게 하려면 비회원은 대문 조회 + 로그인, 비인증 회원이 조회랑 검색까지 되고, 나머지를 인증 회원한테 허용하는 것도 괜찮을 거 같습니다.</t>
+  </si>
+  <si>
+    <t>비회원(로그인 x 회원) → 회원가입 기능만 오픈
+재학생 미인증 회원 → 마이페이지 접근 + 홍익지도 일부 이용 가능
+인증 회원 → 모든 기능 오픈
+관리자 → 인증 회원 기능 + 등록된 회원 관리 + 신고 내역 처리 가능
+정도로 기능을 제한하는 것이 좋다고 생각합니다</t>
+  </si>
+  <si>
+    <t>학과 내 인기 도서 리스트 조회</t>
+  </si>
+  <si>
+    <t>재학생 인증으로 학과까지 알 수는 없을 것 같아 학과내 인기 책 리스트는 비인증회원까지는 공개해도 괜찮지 않을까 생각해봤습니다</t>
+  </si>
+  <si>
+    <t>비인증 회원에게 전체 인기 리스트를 제공한다면 굳이 학과별 인기 책 리스트를 막을 이유는 없어 보입니다.</t>
+  </si>
+  <si>
+    <t>비인증 회원의 학과를 알 수 없는데 어떻게 조회하나요</t>
+  </si>
+  <si>
+    <t>관리자의 신고 처리 방법?
+신고된 글, 코멘트 처리 방법 
+글이 아니라 당사자가 신고된 경우는? 
+글이 신고되는 것과 당사자가 신고되는 것을 구분?</t>
+  </si>
+  <si>
+    <t>신고된 글이나 코멘트는 사유를 보도 글 삭제 하기 
+당사자가 신고된 경우 기간을 두어 탈퇴 처리?
+글 신고와 당사자 신고 구분이 좋을 듯</t>
+  </si>
+  <si>
+    <t>비재학생 및  비회원의 경우 학교 정보 열람을 위한 AI chat 이용 가능?</t>
+  </si>
+  <si>
+    <t>비회원 =&gt; AI chatbot 이용 불가 
+미인증 회원 =&gt; 이...용..가능? 모르겠습니다.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="18">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1334,8 +1481,44 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Ȫptos Narrow\&quot;&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;\&quot;Ȫptos Narrow\\\&quot;\&quot;&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Ȫptos Narrow\&quot;&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF595959"/>
+      <name val="&quot;\&quot;Ȫptos Narrow\\\&quot;\&quot;&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFE97132"/>
+      <name val="&quot;Ȫptos Narrow\&quot;&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4EA72E"/>
+      <name val="&quot;Ȫptos Narrow\&quot;&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA02B93"/>
+      <name val="&quot;Ȫptos Narrow\&quot;&quot;"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1384,8 +1567,14 @@
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1C232"/>
+        <bgColor rgb="FFF1C232"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1772,11 +1961,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1872,47 +2148,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1926,35 +2166,180 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{0417FA29-78FA-4A13-93AC-8FF0FAFDF519}">
-          <xfpb:DXFComplement i="0"/>
-        </ext>
-      </extLst>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2006,14 +2391,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="requirement list-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
     <tableStyle name="결정해야 하는 것-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2080,26 +2465,7 @@
       <bagId>2</bagId>
     </a>
   </bag>
-  <bag type="DXFComplements" extRef="DXFComplementsMapperExtRef">
-    <a k="MappedFeaturePropertyBags">
-      <bagId>2</bagId>
-    </a>
-  </bag>
 </FeaturePropertyBags>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="표2" displayName="표2" ref="A1:F11">
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="결정 여부" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="안건"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="이재헌"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="이강유"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="정민규"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문하늘"/>
-  </tableColumns>
-  <tableStyleInfo name="결정해야 하는 것-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2305,9 +2671,9 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
@@ -2318,99 +2684,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="A2" s="66"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="12" t="b">
-        <v>0</v>
-      </c>
+      <c r="A3" s="67"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="13"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="A4" s="66"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="67"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A6" s="68"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="46" t="b">
-        <v>0</v>
-      </c>
+      <c r="A7" s="67"/>
       <c r="B7" s="17"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -2418,49 +2740,31 @@
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="A8" s="66"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="67"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="A10" s="66"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
       <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="48" t="b">
-        <v>0</v>
-      </c>
+      <c r="A11" s="69"/>
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
@@ -2469,13 +2773,330 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E488C40-9C8F-C546-BA67-884ADEF004B5}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="60" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.3984375" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="358">
+      <c r="A2" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="81" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="140">
+      <c r="A3" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>337</v>
+      </c>
+      <c r="F3" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="112">
+      <c r="A4" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="224">
+      <c r="A5" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>345</v>
+      </c>
+      <c r="F5" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="196">
+      <c r="A6" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="293">
+      <c r="A7" s="102" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>354</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>355</v>
+      </c>
+      <c r="G7" s="88"/>
+    </row>
+    <row r="8" spans="1:7" ht="182">
+      <c r="A8" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>357</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>358</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>359</v>
+      </c>
+      <c r="F8" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="70">
+      <c r="A9" s="105"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="84" t="s">
+        <v>361</v>
+      </c>
+      <c r="E9" s="85"/>
+      <c r="F9" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="88"/>
+    </row>
+    <row r="10" spans="1:7" ht="238">
+      <c r="A10" s="101" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>362</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>363</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>364</v>
+      </c>
+      <c r="F10" s="95" t="s">
+        <v>365</v>
+      </c>
+      <c r="G10" s="88"/>
+    </row>
+    <row r="11" spans="1:7" ht="409.6">
+      <c r="A11" s="106" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98" t="s">
+        <v>367</v>
+      </c>
+      <c r="E11" s="99" t="s">
+        <v>368</v>
+      </c>
+      <c r="F11" s="100"/>
+      <c r="G11" s="88"/>
+    </row>
+    <row r="12" spans="1:7" ht="409.6">
+      <c r="A12" s="106" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="96" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" s="97" t="s">
+        <v>370</v>
+      </c>
+      <c r="D12" s="98" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" s="99" t="s">
+        <v>371</v>
+      </c>
+      <c r="F12" s="100" t="s">
+        <v>372</v>
+      </c>
+      <c r="G12" s="88"/>
+    </row>
+    <row r="13" spans="1:7" ht="252">
+      <c r="A13" s="106" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="96" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13" s="97"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="100" t="s">
+        <v>374</v>
+      </c>
+      <c r="G13" s="88"/>
+    </row>
+    <row r="14" spans="1:7" ht="126">
+      <c r="A14" s="106" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>375</v>
+      </c>
+      <c r="C14" s="97"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="100" t="s">
+        <v>376</v>
+      </c>
+      <c r="G14" s="88"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="106" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="96"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="88"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2491,7 +3112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2517,60 +3138,60 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="D3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="46"/>
+      <c r="B5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="C5" s="28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="49"/>
-      <c r="B5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="50"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="29"/>
       <c r="B7" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -2578,7 +3199,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="29"/>
       <c r="B8" s="30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -2586,335 +3207,335 @@
     <row r="9" spans="1:4">
       <c r="A9" s="29"/>
       <c r="B9" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="46"/>
+      <c r="B11" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C11" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="31"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="49"/>
-      <c r="B11" s="27" t="s">
+      <c r="D11" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="28" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="46"/>
+      <c r="B12" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="C12" s="28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="49"/>
-      <c r="B12" s="27" t="s">
+      <c r="D12" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="28" t="s">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="46"/>
+      <c r="B13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="C13" s="28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="49"/>
-      <c r="B13" s="27" t="s">
+      <c r="D13" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="28" t="s">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="46"/>
+      <c r="B14" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="C14" s="28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="49"/>
-      <c r="B14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="28" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="46"/>
+      <c r="B15" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="C15" s="28" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="49"/>
-      <c r="B15" s="27" t="s">
+      <c r="D15" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="28" t="s">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="47"/>
+      <c r="B16" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="C16" s="33" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="50"/>
-      <c r="B16" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>55</v>
       </c>
       <c r="D16" s="28"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="29"/>
       <c r="B17" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="29"/>
       <c r="B18" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="29"/>
       <c r="B19" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="B20" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="55" t="s">
+      <c r="C20" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="31"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="46"/>
+      <c r="B21" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="31"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="49"/>
-      <c r="B21" s="27" t="s">
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="46"/>
+      <c r="B22" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="49"/>
-      <c r="B22" s="27" t="s">
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="46"/>
+      <c r="B23" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="49"/>
-      <c r="B23" s="27" t="s">
+      <c r="D23" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="46"/>
+      <c r="B24" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="C24" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="49"/>
-      <c r="B24" s="27" t="s">
+      <c r="D24" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="46"/>
+      <c r="B25" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="C25" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="49"/>
-      <c r="B25" s="27" t="s">
+      <c r="D25" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="46"/>
+      <c r="B26" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="C26" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="49"/>
-      <c r="B26" s="27" t="s">
+      <c r="D26" s="28"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="47"/>
+      <c r="B27" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="28"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="50"/>
-      <c r="B27" s="27" t="s">
+      <c r="D27" s="28"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="B28" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="31"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="46"/>
+      <c r="B29" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="55" t="s">
+      <c r="C29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="49"/>
-      <c r="B29" s="27" t="s">
+      <c r="D29" s="28"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="46"/>
+      <c r="B30" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="28"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="49"/>
-      <c r="B30" s="27" t="s">
+      <c r="D30" s="28"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="46"/>
+      <c r="B31" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="28"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="49"/>
-      <c r="B31" s="27" t="s">
+      <c r="D31" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="46"/>
+      <c r="B32" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="49"/>
-      <c r="B32" s="27" t="s">
+      <c r="D32" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="47"/>
+      <c r="B33" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="50"/>
-      <c r="B33" s="27" t="s">
+      <c r="D33" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="B34" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="31"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="47"/>
+      <c r="B35" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="55" t="s">
+      <c r="C35" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="31"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="50"/>
-      <c r="B35" s="27" t="s">
+      <c r="D35" s="28"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="B36" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="31"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="46"/>
+      <c r="B37" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="28"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="55" t="s">
+      <c r="C37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="31"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="49"/>
-      <c r="B37" s="27" t="s">
+      <c r="D37" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="2" t="s">
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="47"/>
+      <c r="B38" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="C38" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="50"/>
-      <c r="B38" s="27" t="s">
+      <c r="D38" s="28" t="s">
         <v>99</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3170,7 +3791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3229,27 +3850,27 @@
       <c r="AC1" s="35"/>
     </row>
     <row r="2" spans="1:29" ht="24">
-      <c r="A2" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="58"/>
+      <c r="A2" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="50"/>
       <c r="T2" s="35"/>
       <c r="U2" s="35"/>
       <c r="V2" s="35"/>
@@ -3293,33 +3914,33 @@
       <c r="AC3" s="35"/>
     </row>
     <row r="4" spans="1:29" ht="19">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="56" t="s">
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="58"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="50"/>
       <c r="T4" s="35"/>
       <c r="U4" s="35"/>
       <c r="V4" s="35"/>
@@ -3333,55 +3954,55 @@
     </row>
     <row r="5" spans="1:29" ht="19">
       <c r="A5" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="D5" s="36" t="s">
         <v>108</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>110</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="I5" s="36" t="s">
         <v>108</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>110</v>
       </c>
       <c r="J5" s="35"/>
       <c r="K5" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="N5" s="36" t="s">
         <v>108</v>
-      </c>
-      <c r="M5" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="N5" s="36" t="s">
-        <v>110</v>
       </c>
       <c r="O5" s="35"/>
       <c r="P5" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="S5" s="36" t="s">
         <v>108</v>
-      </c>
-      <c r="R5" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="S5" s="36" t="s">
-        <v>110</v>
       </c>
       <c r="T5" s="35"/>
       <c r="U5" s="35"/>
@@ -3396,55 +4017,55 @@
     </row>
     <row r="6" spans="1:29" ht="14">
       <c r="A6" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="D6" s="27" t="s">
         <v>112</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>114</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G6" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="27" t="s">
         <v>112</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>114</v>
       </c>
       <c r="J6" s="35"/>
       <c r="K6" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L6" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="27" t="s">
         <v>112</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>114</v>
       </c>
       <c r="O6" s="35"/>
       <c r="P6" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="S6" s="27" t="s">
         <v>112</v>
-      </c>
-      <c r="R6" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="S6" s="27" t="s">
-        <v>114</v>
       </c>
       <c r="T6" s="35"/>
       <c r="U6" s="35"/>
@@ -3459,55 +4080,55 @@
     </row>
     <row r="7" spans="1:29" ht="14">
       <c r="A7" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O7" s="35"/>
       <c r="P7" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="R7" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="R7" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="S7" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T7" s="35"/>
       <c r="U7" s="35"/>
@@ -3522,55 +4143,55 @@
     </row>
     <row r="8" spans="1:29" ht="14">
       <c r="A8" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G8" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="I8" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J8" s="35"/>
       <c r="K8" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L8" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="M8" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="N8" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="R8" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="R8" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="S8" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
@@ -3585,55 +4206,55 @@
     </row>
     <row r="9" spans="1:29" ht="14">
       <c r="A9" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="D9" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G9" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="I9" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J9" s="35"/>
       <c r="K9" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L9" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="M9" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="N9" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O9" s="35"/>
       <c r="P9" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R9" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S9" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T9" s="35"/>
       <c r="U9" s="35"/>
@@ -3653,42 +4274,42 @@
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="F10" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G10" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="I10" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J10" s="35"/>
       <c r="K10" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L10" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="M10" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="N10" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O10" s="35"/>
       <c r="P10" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R10" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S10" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
@@ -3708,42 +4329,42 @@
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
       <c r="F11" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G11" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="I11" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J11" s="35"/>
       <c r="K11" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L11" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="M11" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="N11" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O11" s="35"/>
       <c r="P11" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R11" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S11" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T11" s="35"/>
       <c r="U11" s="35"/>
@@ -3763,29 +4384,29 @@
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
       <c r="F12" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G12" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="H12" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="I12" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J12" s="35"/>
       <c r="K12" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L12" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="M12" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="N12" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O12" s="35"/>
       <c r="P12" s="35"/>
@@ -3810,29 +4431,29 @@
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
       <c r="F13" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J13" s="35"/>
       <c r="K13" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O13" s="35"/>
       <c r="P13" s="35"/>
@@ -3882,33 +4503,33 @@
       <c r="AC14" s="35"/>
     </row>
     <row r="15" spans="1:29" ht="19">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="56" t="s">
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="58"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="50"/>
       <c r="T15" s="35"/>
       <c r="U15" s="35"/>
       <c r="V15" s="35"/>
@@ -3922,55 +4543,55 @@
     </row>
     <row r="16" spans="1:29" ht="19">
       <c r="A16" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="D16" s="36" t="s">
         <v>108</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>110</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="I16" s="36" t="s">
         <v>108</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>110</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="36" t="s">
+      <c r="N16" s="36" t="s">
         <v>108</v>
-      </c>
-      <c r="M16" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="N16" s="36" t="s">
-        <v>110</v>
       </c>
       <c r="O16" s="35"/>
       <c r="P16" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q16" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="R16" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="Q16" s="36" t="s">
+      <c r="S16" s="36" t="s">
         <v>108</v>
-      </c>
-      <c r="R16" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="S16" s="36" t="s">
-        <v>110</v>
       </c>
       <c r="T16" s="35"/>
       <c r="U16" s="35"/>
@@ -3985,55 +4606,55 @@
     </row>
     <row r="17" spans="1:29" ht="14">
       <c r="A17" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G17" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="27" t="s">
         <v>112</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>114</v>
       </c>
       <c r="J17" s="35"/>
       <c r="K17" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L17" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="N17" s="27" t="s">
         <v>112</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>114</v>
       </c>
       <c r="O17" s="35"/>
       <c r="P17" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="R17" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="S17" s="27" t="s">
         <v>112</v>
-      </c>
-      <c r="R17" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="S17" s="27" t="s">
-        <v>114</v>
       </c>
       <c r="T17" s="35"/>
       <c r="U17" s="35"/>
@@ -4048,55 +4669,55 @@
     </row>
     <row r="18" spans="1:29" ht="14">
       <c r="A18" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B18" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="D18" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="R18" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="R18" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="S18" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T18" s="35"/>
       <c r="U18" s="35"/>
@@ -4111,55 +4732,55 @@
     </row>
     <row r="19" spans="1:29" ht="14">
       <c r="A19" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G19" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="I19" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J19" s="35"/>
       <c r="K19" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L19" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="M19" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="N19" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O19" s="35"/>
       <c r="P19" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="R19" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="R19" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="S19" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T19" s="35"/>
       <c r="U19" s="35"/>
@@ -4174,55 +4795,55 @@
     </row>
     <row r="20" spans="1:29" ht="14">
       <c r="A20" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G20" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="I20" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J20" s="35"/>
       <c r="K20" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L20" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M20" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="M20" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="N20" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O20" s="35"/>
       <c r="P20" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R20" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S20" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T20" s="35"/>
       <c r="U20" s="35"/>
@@ -4237,55 +4858,55 @@
     </row>
     <row r="21" spans="1:29" ht="14">
       <c r="A21" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G21" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="I21" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J21" s="35"/>
       <c r="K21" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L21" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="M21" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="N21" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O21" s="35"/>
       <c r="P21" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q21" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R21" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S21" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T21" s="35"/>
       <c r="U21" s="35"/>
@@ -4300,55 +4921,55 @@
     </row>
     <row r="22" spans="1:29" ht="14">
       <c r="A22" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G22" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="I22" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J22" s="35"/>
       <c r="K22" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L22" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M22" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="M22" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="N22" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O22" s="35"/>
       <c r="P22" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R22" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S22" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T22" s="35"/>
       <c r="U22" s="35"/>
@@ -4363,42 +4984,42 @@
     </row>
     <row r="23" spans="1:29" ht="14">
       <c r="A23" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G23" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="I23" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J23" s="35"/>
       <c r="K23" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L23" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M23" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="M23" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="N23" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O23" s="35"/>
       <c r="P23" s="35"/>
@@ -4418,42 +5039,42 @@
     </row>
     <row r="24" spans="1:29" ht="14">
       <c r="A24" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J24" s="35"/>
       <c r="K24" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N24" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O24" s="35"/>
       <c r="P24" s="35"/>
@@ -4474,29 +5095,29 @@
     <row r="25" spans="1:29" ht="14">
       <c r="E25" s="35"/>
       <c r="F25" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J25" s="35"/>
       <c r="K25" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O25" s="35"/>
       <c r="P25" s="35"/>
@@ -4569,27 +5190,27 @@
       <c r="AC27" s="35"/>
     </row>
     <row r="28" spans="1:29" ht="24">
-      <c r="A28" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="58"/>
+      <c r="A28" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="50"/>
       <c r="T28" s="35"/>
       <c r="U28" s="35"/>
       <c r="V28" s="35"/>
@@ -4626,24 +5247,24 @@
       <c r="AC29" s="35"/>
     </row>
     <row r="30" spans="1:29" ht="19">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="50"/>
+      <c r="F30" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
+      <c r="K30" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="F30" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="58"/>
-      <c r="K30" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="58"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="50"/>
       <c r="T30" s="35"/>
       <c r="U30" s="35"/>
       <c r="V30" s="35"/>
@@ -4657,40 +5278,40 @@
     </row>
     <row r="31" spans="1:29" ht="19">
       <c r="A31" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="G31" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="G31" s="36" t="s">
+      <c r="K31" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="L31" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="M31" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="N31" s="36" t="s">
         <v>108</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="I31" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="K31" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="L31" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="M31" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="N31" s="36" t="s">
-        <v>110</v>
       </c>
       <c r="T31" s="35"/>
       <c r="U31" s="35"/>
@@ -4705,40 +5326,40 @@
     </row>
     <row r="32" spans="1:29" ht="14">
       <c r="A32" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="D32" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="G32" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="H32" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="27" t="s">
+      <c r="I32" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="G32" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="H32" s="28" t="s">
+      <c r="K32" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="L32" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="M32" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="K32" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="L32" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="M32" s="28" t="s">
-        <v>175</v>
-      </c>
       <c r="N32" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T32" s="35"/>
       <c r="U32" s="35"/>
@@ -4753,40 +5374,40 @@
     </row>
     <row r="33" spans="1:29" ht="14">
       <c r="A33" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C33" s="28" t="s">
+      <c r="G33" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="27" t="s">
+      <c r="I33" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="K33" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="G33" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="H33" s="28" t="s">
+      <c r="L33" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="M33" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="I33" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="K33" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="L33" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="M33" s="28" t="s">
-        <v>181</v>
-      </c>
       <c r="N33" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T33" s="35"/>
       <c r="U33" s="35"/>
@@ -4801,40 +5422,40 @@
     </row>
     <row r="34" spans="1:29" ht="14">
       <c r="A34" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" s="28" t="s">
+      <c r="G34" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="27" t="s">
+      <c r="H34" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="I34" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="K34" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="H34" s="28" t="s">
+      <c r="L34" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="M34" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="I34" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="K34" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="L34" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="M34" s="28" t="s">
-        <v>188</v>
-      </c>
       <c r="N34" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T34" s="35"/>
       <c r="U34" s="35"/>
@@ -4849,40 +5470,40 @@
     </row>
     <row r="35" spans="1:29" ht="14">
       <c r="A35" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="B35" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" s="28" t="s">
+      <c r="G35" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="D35" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="27" t="s">
+      <c r="I35" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="K35" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="G35" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="H35" s="28" t="s">
+      <c r="L35" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="M35" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="I35" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="K35" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L35" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="M35" s="28" t="s">
-        <v>194</v>
-      </c>
       <c r="N35" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T35" s="35"/>
       <c r="U35" s="35"/>
@@ -4897,16 +5518,16 @@
     </row>
     <row r="36" spans="1:29" ht="14">
       <c r="A36" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T36" s="35"/>
       <c r="U36" s="35"/>
@@ -4944,27 +5565,27 @@
       <c r="AC38" s="35"/>
     </row>
     <row r="39" spans="1:29" ht="21" customHeight="1">
-      <c r="A39" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="62"/>
+      <c r="A39" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="54"/>
       <c r="T39" s="35"/>
       <c r="U39" s="35"/>
       <c r="V39" s="35"/>
@@ -4977,25 +5598,25 @@
       <c r="AC39" s="35"/>
     </row>
     <row r="40" spans="1:29" ht="20.25" customHeight="1">
-      <c r="A40" s="52"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="63"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="57"/>
       <c r="T40" s="35"/>
       <c r="U40" s="35"/>
       <c r="V40" s="35"/>
@@ -5008,25 +5629,25 @@
       <c r="AC40" s="35"/>
     </row>
     <row r="41" spans="1:29" ht="14">
-      <c r="A41" s="53"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="64"/>
-      <c r="S41" s="54"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="60"/>
       <c r="T41" s="35"/>
       <c r="U41" s="35"/>
       <c r="V41" s="35"/>
@@ -5051,31 +5672,31 @@
       <c r="AC42" s="35"/>
     </row>
     <row r="43" spans="1:29" ht="19">
-      <c r="A43" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="58"/>
-      <c r="F43" s="56" t="s">
+      <c r="A43" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="50"/>
+      <c r="F43" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="50"/>
+      <c r="K43" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="58"/>
-      <c r="K43" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q43" s="57"/>
-      <c r="R43" s="57"/>
-      <c r="S43" s="58"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="50"/>
       <c r="T43" s="35"/>
       <c r="U43" s="35"/>
       <c r="V43" s="35"/>
@@ -5089,53 +5710,53 @@
     </row>
     <row r="44" spans="1:29" ht="19">
       <c r="A44" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B44" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="D44" s="36" t="s">
-        <v>110</v>
-      </c>
       <c r="F44" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G44" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="I44" s="36" t="s">
         <v>108</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="I44" s="36" t="s">
-        <v>110</v>
       </c>
       <c r="J44" s="35"/>
       <c r="K44" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L44" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="M44" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="N44" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="M44" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="N44" s="36" t="s">
-        <v>110</v>
-      </c>
       <c r="P44" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q44" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="R44" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="S44" s="36" t="s">
         <v>108</v>
-      </c>
-      <c r="R44" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="S44" s="36" t="s">
-        <v>110</v>
       </c>
       <c r="T44" s="35"/>
       <c r="U44" s="35"/>
@@ -5150,55 +5771,55 @@
     </row>
     <row r="45" spans="1:29" ht="14">
       <c r="A45" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="B45" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>201</v>
-      </c>
       <c r="D45" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I45" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J45" s="35"/>
       <c r="K45" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L45" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M45" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N45" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O45" s="35"/>
       <c r="P45" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q45" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R45" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S45" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T45" s="35"/>
       <c r="U45" s="35"/>
@@ -5213,55 +5834,55 @@
     </row>
     <row r="46" spans="1:29" ht="14">
       <c r="A46" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J46" s="35"/>
       <c r="K46" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L46" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="M46" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="L46" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="M46" s="28" t="s">
-        <v>213</v>
-      </c>
       <c r="N46" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O46" s="35"/>
       <c r="P46" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q46" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R46" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S46" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T46" s="35"/>
       <c r="U46" s="35"/>
@@ -5276,55 +5897,55 @@
     </row>
     <row r="47" spans="1:29" ht="14">
       <c r="A47" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J47" s="35"/>
       <c r="K47" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L47" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M47" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N47" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O47" s="35"/>
       <c r="P47" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q47" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R47" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S47" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T47" s="35"/>
       <c r="U47" s="35"/>
@@ -5339,55 +5960,55 @@
     </row>
     <row r="48" spans="1:29" ht="14">
       <c r="A48" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I48" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J48" s="35"/>
       <c r="K48" s="27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L48" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M48" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N48" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O48" s="35"/>
       <c r="P48" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q48" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R48" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S48" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T48" s="35"/>
       <c r="U48" s="35"/>
@@ -5403,16 +6024,16 @@
     <row r="49" spans="1:29" ht="14">
       <c r="E49" s="1"/>
       <c r="F49" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I49" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J49" s="35"/>
       <c r="K49" s="35"/>
@@ -5438,16 +6059,16 @@
     <row r="50" spans="1:29" ht="14">
       <c r="E50" s="1"/>
       <c r="F50" s="27" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I50" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
@@ -5473,16 +6094,16 @@
     <row r="51" spans="1:29" ht="14">
       <c r="E51" s="1"/>
       <c r="F51" s="27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I51" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J51" s="35"/>
       <c r="K51" s="35"/>
@@ -7385,6 +8006,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="A28:S28"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="A39:S41"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F43:I43"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="P15:S15"/>
     <mergeCell ref="A2:S2"/>
@@ -7394,21 +8024,12 @@
     <mergeCell ref="P4:S4"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="F15:I15"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="A28:S28"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="A39:S41"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F43:I43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7425,317 +8046,293 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="68" t="s">
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="68" t="s">
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="36" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="61" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="65" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="67" t="s">
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="67" t="s">
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="27" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="61" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="65" t="s">
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="67" t="s">
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="67" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="65" t="s">
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="67" t="s">
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="67" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="65" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="67" t="s">
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="67" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="65" t="s">
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="67" t="s">
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="67" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="65" t="s">
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="66" t="s">
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="67" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="65" t="s">
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="66" t="s">
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="67" t="s">
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="27" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="64" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="65" t="s">
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="66" t="s">
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="67" t="s">
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="27" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="64" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="65" t="s">
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="66" t="s">
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="63" t="s">
         <v>267</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="67" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="27" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="65" t="s">
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="66" t="s">
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="63" t="s">
         <v>270</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="67" t="s">
+      <c r="C13" s="50"/>
+      <c r="D13" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="27" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="65" t="s">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="66" t="s">
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="63" t="s">
         <v>273</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="67" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="27" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="65" t="s">
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="67" t="s">
-        <v>277</v>
-      </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
       <c r="M14" s="27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:L9"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="I14:L14"/>
@@ -7751,12 +8348,36 @@
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7773,469 +8394,469 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="14">
-      <c r="B2" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
+      <c r="B2" s="63" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="2:13" ht="14">
       <c r="B3" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="38" t="s">
+    </row>
+    <row r="4" spans="2:13" ht="15.75" customHeight="1">
+      <c r="G4" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="H4" s="49"/>
+      <c r="I4" s="50"/>
+      <c r="K4" s="65" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" ht="15.75" customHeight="1">
-      <c r="G4" s="69" t="s">
-        <v>282</v>
-      </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58"/>
-      <c r="K4" s="69" t="s">
-        <v>283</v>
-      </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="58"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" customHeight="1">
       <c r="B5" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="E5" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="G5" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="H5" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="I5" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="H5" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>290</v>
-      </c>
       <c r="K5" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="M5" s="39" t="s">
         <v>288</v>
-      </c>
-      <c r="L5" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="14">
       <c r="B6" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="E6" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="G6" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="H6" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>295</v>
-      </c>
       <c r="I6" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M6" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="14">
       <c r="B7" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="E7" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="G7" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="H7" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="E7" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="G7" s="40" t="s">
+      <c r="I7" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="L7" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>301</v>
-      </c>
       <c r="M7" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="14">
       <c r="B8" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="E8" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="H8" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>306</v>
-      </c>
       <c r="I8" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M8" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="14">
       <c r="B9" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="E9" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="D9" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>310</v>
-      </c>
       <c r="H9" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M9" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="14">
       <c r="B10" s="27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M10" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="14">
       <c r="B11" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>315</v>
-      </c>
       <c r="E11" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="14">
       <c r="B12" s="27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.75" customHeight="1">
       <c r="B13" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="E13" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="G13" s="65" t="s">
         <v>318</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+      <c r="K13" s="65" t="s">
         <v>319</v>
       </c>
-      <c r="E13" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>320</v>
-      </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
-      <c r="K13" s="69" t="s">
-        <v>321</v>
-      </c>
-      <c r="L13" s="57"/>
-      <c r="M13" s="58"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="50"/>
     </row>
     <row r="14" spans="2:13" ht="15.75" customHeight="1">
       <c r="B14" s="27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G14" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="I14" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="H14" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>290</v>
-      </c>
       <c r="K14" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="M14" s="39" t="s">
         <v>288</v>
-      </c>
-      <c r="L14" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="M14" s="39" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="14">
       <c r="B15" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>325</v>
-      </c>
       <c r="E15" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M15" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="14">
       <c r="B16" s="27" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G16" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="H16" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="H16" s="27" t="s">
-        <v>301</v>
-      </c>
       <c r="I16" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K16" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="L16" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="L16" s="27" t="s">
-        <v>301</v>
-      </c>
       <c r="M16" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="14">
       <c r="B17" s="27" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M17" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="14">
       <c r="B18" s="27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M18" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="14">
       <c r="B19" s="27" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M19" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="16">

--- a/결정해야 하는 사항 정리.xlsx
+++ b/결정해야 하는 사항 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haneulmun/Documents/Github/hong-bookstore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC251121-AE8B-8D43-BD47-633E7FF3E0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AFD9C8-840C-8A48-A714-C2F4546D053E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="760" windowWidth="29180" windowHeight="17240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2148,45 +2148,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2256,17 +2217,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2312,6 +2265,14 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <extLst>
@@ -2327,13 +2288,52 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2692,7 +2692,7 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="66"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -2700,7 +2700,7 @@
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
       <c r="D3" s="14"/>
@@ -2708,7 +2708,7 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="66"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -2716,7 +2716,7 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="17"/>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
@@ -2724,7 +2724,7 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="68"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -2732,7 +2732,7 @@
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="67"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="17"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -2740,7 +2740,7 @@
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="66"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -2748,7 +2748,7 @@
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="67"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="17"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
@@ -2756,7 +2756,7 @@
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="66"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -2764,7 +2764,7 @@
       <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="69"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
@@ -2780,311 +2780,312 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E488C40-9C8F-C546-BA67-884ADEF004B5}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.3984375" customWidth="1"/>
+    <col min="3" max="3" width="134.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="54" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="358">
-      <c r="A2" s="101" t="b">
+    <row r="2" spans="1:7" ht="306">
+      <c r="A2" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>333</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="60" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="140">
-      <c r="A3" s="102" t="b">
+    <row r="3" spans="1:7" ht="112">
+      <c r="A3" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="62" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="63" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="64" t="s">
         <v>337</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="54" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="112">
-      <c r="A4" s="101" t="b">
+    <row r="4" spans="1:7" ht="84">
+      <c r="A4" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="56" t="s">
         <v>339</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="54" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="224">
-      <c r="A5" s="102" t="b">
+      <c r="A5" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="62" t="s">
         <v>343</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="63" t="s">
         <v>344</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="64" t="s">
         <v>345</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="54" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="196">
-      <c r="A6" s="103" t="b">
+    <row r="6" spans="1:7" ht="182">
+      <c r="A6" s="78" t="b">
         <v>1</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="56" t="s">
         <v>347</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="57" t="s">
         <v>348</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="58" t="s">
         <v>349</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="75" t="s">
+      <c r="G6" s="54" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="293">
-      <c r="A7" s="102" t="b">
+    <row r="7" spans="1:7" ht="266">
+      <c r="A7" s="77" t="b">
         <v>0</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="66" t="s">
         <v>351</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="62" t="s">
         <v>352</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="64" t="s">
         <v>354</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="65" t="s">
         <v>355</v>
       </c>
-      <c r="G7" s="88"/>
+      <c r="G7" s="67"/>
     </row>
     <row r="8" spans="1:7" ht="182">
-      <c r="A8" s="104" t="b">
+      <c r="A8" s="80" t="b">
         <v>1</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="82" t="s">
         <v>356</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="84" t="s">
         <v>357</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="68" t="s">
         <v>358</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="58" t="s">
         <v>359</v>
       </c>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="75" t="s">
+      <c r="G8" s="54" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="70">
-      <c r="A9" s="105"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="84" t="s">
+      <c r="A9" s="81"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="63" t="s">
         <v>361</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="94" t="s">
+      <c r="E9" s="64"/>
+      <c r="F9" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="88"/>
-    </row>
-    <row r="10" spans="1:7" ht="238">
-      <c r="A10" s="101" t="b">
+      <c r="G9" s="67"/>
+    </row>
+    <row r="10" spans="1:7" ht="224">
+      <c r="A10" s="76" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="56" t="s">
         <v>362</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="57" t="s">
         <v>363</v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="58" t="s">
         <v>364</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F10" s="70" t="s">
         <v>365</v>
       </c>
-      <c r="G10" s="88"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="11" spans="1:7" ht="409.6">
-      <c r="A11" s="106" t="b">
+      <c r="A11" s="79" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="C11" s="97"/>
-      <c r="D11" s="98" t="s">
+      <c r="C11" s="72"/>
+      <c r="D11" s="73" t="s">
         <v>367</v>
       </c>
-      <c r="E11" s="99" t="s">
+      <c r="E11" s="74" t="s">
         <v>368</v>
       </c>
-      <c r="F11" s="100"/>
-      <c r="G11" s="88"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="409.6">
-      <c r="A12" s="106" t="b">
+      <c r="A12" s="79" t="b">
         <v>0</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="72" t="s">
         <v>370</v>
       </c>
-      <c r="D12" s="98" t="s">
+      <c r="D12" s="73" t="s">
         <v>367</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="74" t="s">
         <v>371</v>
       </c>
-      <c r="F12" s="100" t="s">
+      <c r="F12" s="75" t="s">
         <v>372</v>
       </c>
-      <c r="G12" s="88"/>
+      <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:7" ht="252">
-      <c r="A13" s="106" t="b">
+      <c r="A13" s="79" t="b">
         <v>0</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="71" t="s">
         <v>373</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100" t="s">
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="75" t="s">
         <v>374</v>
       </c>
-      <c r="G13" s="88"/>
-    </row>
-    <row r="14" spans="1:7" ht="126">
-      <c r="A14" s="106" t="b">
+      <c r="G13" s="67"/>
+    </row>
+    <row r="14" spans="1:7" ht="140">
+      <c r="A14" s="79" t="b">
         <v>0</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="71" t="s">
         <v>375</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="100" t="s">
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="75" t="s">
         <v>376</v>
       </c>
-      <c r="G14" s="88"/>
+      <c r="G14" s="67"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="106" t="b">
+      <c r="A15" s="79" t="b">
         <v>0</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="88"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3151,7 +3152,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -3165,7 +3166,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="46"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="27" t="s">
         <v>26</v>
       </c>
@@ -3177,7 +3178,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="47"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="27" t="s">
         <v>1</v>
       </c>
@@ -3213,7 +3214,7 @@
       <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="86" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -3225,7 +3226,7 @@
       <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="46"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="27" t="s">
         <v>37</v>
       </c>
@@ -3237,7 +3238,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="46"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="27" t="s">
         <v>40</v>
       </c>
@@ -3249,7 +3250,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="46"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="27" t="s">
         <v>43</v>
       </c>
@@ -3261,7 +3262,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="46"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="27" t="s">
         <v>46</v>
       </c>
@@ -3273,7 +3274,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="46"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="27" t="s">
         <v>49</v>
       </c>
@@ -3285,7 +3286,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="47"/>
+      <c r="A16" s="88"/>
       <c r="B16" s="27" t="s">
         <v>52</v>
       </c>
@@ -3325,7 +3326,7 @@
       <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="86" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -3337,7 +3338,7 @@
       <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="46"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="27" t="s">
         <v>62</v>
       </c>
@@ -3347,7 +3348,7 @@
       <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="46"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="27" t="s">
         <v>64</v>
       </c>
@@ -3357,7 +3358,7 @@
       <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="46"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="27" t="s">
         <v>66</v>
       </c>
@@ -3369,7 +3370,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="46"/>
+      <c r="A24" s="87"/>
       <c r="B24" s="27" t="s">
         <v>69</v>
       </c>
@@ -3381,7 +3382,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="46"/>
+      <c r="A25" s="87"/>
       <c r="B25" s="27" t="s">
         <v>72</v>
       </c>
@@ -3393,7 +3394,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="46"/>
+      <c r="A26" s="87"/>
       <c r="B26" s="27" t="s">
         <v>75</v>
       </c>
@@ -3403,7 +3404,7 @@
       <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="47"/>
+      <c r="A27" s="88"/>
       <c r="B27" s="27" t="s">
         <v>77</v>
       </c>
@@ -3413,7 +3414,7 @@
       <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="86" t="s">
         <v>79</v>
       </c>
       <c r="B28" s="30" t="s">
@@ -3425,7 +3426,7 @@
       <c r="D28" s="31"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="46"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="27" t="s">
         <v>80</v>
       </c>
@@ -3435,7 +3436,7 @@
       <c r="D29" s="28"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="46"/>
+      <c r="A30" s="87"/>
       <c r="B30" s="27" t="s">
         <v>82</v>
       </c>
@@ -3445,7 +3446,7 @@
       <c r="D30" s="28"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="46"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="27" t="s">
         <v>84</v>
       </c>
@@ -3457,7 +3458,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="46"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="27" t="s">
         <v>86</v>
       </c>
@@ -3469,7 +3470,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="47"/>
+      <c r="A33" s="88"/>
       <c r="B33" s="27" t="s">
         <v>88</v>
       </c>
@@ -3481,7 +3482,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="86" t="s">
         <v>90</v>
       </c>
       <c r="B34" s="30" t="s">
@@ -3493,7 +3494,7 @@
       <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="47"/>
+      <c r="A35" s="88"/>
       <c r="B35" s="27" t="s">
         <v>91</v>
       </c>
@@ -3503,7 +3504,7 @@
       <c r="D35" s="28"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="86" t="s">
         <v>93</v>
       </c>
       <c r="B36" s="30" t="s">
@@ -3515,7 +3516,7 @@
       <c r="D36" s="31"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="46"/>
+      <c r="A37" s="87"/>
       <c r="B37" s="27" t="s">
         <v>94</v>
       </c>
@@ -3527,7 +3528,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="47"/>
+      <c r="A38" s="88"/>
       <c r="B38" s="27" t="s">
         <v>97</v>
       </c>
@@ -3850,27 +3851,27 @@
       <c r="AC1" s="35"/>
     </row>
     <row r="2" spans="1:29" ht="24">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="91"/>
       <c r="T2" s="35"/>
       <c r="U2" s="35"/>
       <c r="V2" s="35"/>
@@ -3914,33 +3915,33 @@
       <c r="AC3" s="35"/>
     </row>
     <row r="4" spans="1:29" ht="19">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="91"/>
       <c r="J4" s="35"/>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="50"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
       <c r="O4" s="35"/>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="50"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="91"/>
       <c r="T4" s="35"/>
       <c r="U4" s="35"/>
       <c r="V4" s="35"/>
@@ -4503,33 +4504,33 @@
       <c r="AC14" s="35"/>
     </row>
     <row r="15" spans="1:29" ht="19">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
       <c r="J15" s="35"/>
-      <c r="K15" s="48" t="s">
+      <c r="K15" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="50"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="91"/>
       <c r="O15" s="35"/>
-      <c r="P15" s="48" t="s">
+      <c r="P15" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="50"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="91"/>
       <c r="T15" s="35"/>
       <c r="U15" s="35"/>
       <c r="V15" s="35"/>
@@ -5190,27 +5191,27 @@
       <c r="AC27" s="35"/>
     </row>
     <row r="28" spans="1:29" ht="24">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="50"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="91"/>
       <c r="T28" s="35"/>
       <c r="U28" s="35"/>
       <c r="V28" s="35"/>
@@ -5247,24 +5248,24 @@
       <c r="AC29" s="35"/>
     </row>
     <row r="30" spans="1:29" ht="19">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="50"/>
-      <c r="F30" s="48" t="s">
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="91"/>
+      <c r="F30" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
-      <c r="K30" s="48" t="s">
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="91"/>
+      <c r="K30" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="50"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="91"/>
       <c r="T30" s="35"/>
       <c r="U30" s="35"/>
       <c r="V30" s="35"/>
@@ -5565,27 +5566,27 @@
       <c r="AC38" s="35"/>
     </row>
     <row r="39" spans="1:29" ht="21" customHeight="1">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="54"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="94"/>
+      <c r="O39" s="94"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="94"/>
+      <c r="S39" s="95"/>
       <c r="T39" s="35"/>
       <c r="U39" s="35"/>
       <c r="V39" s="35"/>
@@ -5598,25 +5599,25 @@
       <c r="AC39" s="35"/>
     </row>
     <row r="40" spans="1:29" ht="20.25" customHeight="1">
-      <c r="A40" s="55"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="56"/>
-      <c r="S40" s="57"/>
+      <c r="A40" s="96"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="97"/>
+      <c r="L40" s="97"/>
+      <c r="M40" s="97"/>
+      <c r="N40" s="97"/>
+      <c r="O40" s="97"/>
+      <c r="P40" s="97"/>
+      <c r="Q40" s="97"/>
+      <c r="R40" s="97"/>
+      <c r="S40" s="98"/>
       <c r="T40" s="35"/>
       <c r="U40" s="35"/>
       <c r="V40" s="35"/>
@@ -5629,25 +5630,25 @@
       <c r="AC40" s="35"/>
     </row>
     <row r="41" spans="1:29" ht="14">
-      <c r="A41" s="58"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="60"/>
+      <c r="A41" s="99"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
+      <c r="P41" s="100"/>
+      <c r="Q41" s="100"/>
+      <c r="R41" s="100"/>
+      <c r="S41" s="101"/>
       <c r="T41" s="35"/>
       <c r="U41" s="35"/>
       <c r="V41" s="35"/>
@@ -5672,31 +5673,31 @@
       <c r="AC42" s="35"/>
     </row>
     <row r="43" spans="1:29" ht="19">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="50"/>
-      <c r="F43" s="48" t="s">
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="91"/>
+      <c r="F43" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="50"/>
-      <c r="K43" s="48" t="s">
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="91"/>
+      <c r="K43" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="50"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="90"/>
+      <c r="N43" s="91"/>
       <c r="O43" s="35"/>
-      <c r="P43" s="48" t="s">
+      <c r="P43" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="49"/>
-      <c r="S43" s="50"/>
+      <c r="Q43" s="90"/>
+      <c r="R43" s="90"/>
+      <c r="S43" s="91"/>
       <c r="T43" s="35"/>
       <c r="U43" s="35"/>
       <c r="V43" s="35"/>
@@ -8006,6 +8007,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="F15:I15"/>
     <mergeCell ref="K43:N43"/>
     <mergeCell ref="P43:S43"/>
     <mergeCell ref="A28:S28"/>
@@ -8015,15 +8025,6 @@
     <mergeCell ref="A39:S41"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="F43:I43"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="F15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8046,293 +8047,317 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="105" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="62" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="105" t="s">
         <v>234</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="50"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="91"/>
       <c r="M2" s="36" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="102" t="s">
         <v>237</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="61" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="104" t="s">
         <v>238</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="61" t="s">
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="104" t="s">
         <v>239</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="91"/>
       <c r="M3" s="27" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="102" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="61" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="104" t="s">
         <v>242</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="61" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="91"/>
       <c r="M4" s="27" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="102" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="61" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="104" t="s">
         <v>245</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="61" t="s">
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="104" t="s">
         <v>246</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="50"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="91"/>
       <c r="M5" s="27" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="102" t="s">
         <v>247</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="61" t="s">
+      <c r="C6" s="91"/>
+      <c r="D6" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="61" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
       <c r="M6" s="27" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="61" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="104" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="61" t="s">
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="104" t="s">
         <v>252</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="50"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
       <c r="M7" s="27" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="102" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="64" t="s">
+      <c r="C8" s="91"/>
+      <c r="D8" s="103" t="s">
         <v>254</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61" t="s">
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="104" t="s">
         <v>255</v>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="50"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="91"/>
       <c r="M8" s="27" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="102" t="s">
         <v>256</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="64" t="s">
+      <c r="C9" s="91"/>
+      <c r="D9" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61" t="s">
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="104" t="s">
         <v>258</v>
       </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="50"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="91"/>
       <c r="M9" s="27" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="102" t="s">
         <v>260</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="64" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="103" t="s">
         <v>261</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61" t="s">
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="50"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="91"/>
       <c r="M10" s="27" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="64" t="s">
+      <c r="C11" s="91"/>
+      <c r="D11" s="103" t="s">
         <v>265</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61" t="s">
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="104" t="s">
         <v>266</v>
       </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="91"/>
       <c r="M11" s="27" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="102" t="s">
         <v>267</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="64" t="s">
+      <c r="C12" s="91"/>
+      <c r="D12" s="103" t="s">
         <v>268</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61" t="s">
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="104" t="s">
         <v>269</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="50"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="91"/>
       <c r="M12" s="27" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="102" t="s">
         <v>270</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="64" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="103" t="s">
         <v>271</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61" t="s">
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="104" t="s">
         <v>272</v>
       </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="50"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="91"/>
       <c r="M13" s="27" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="102" t="s">
         <v>273</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="64" t="s">
+      <c r="C14" s="91"/>
+      <c r="D14" s="103" t="s">
         <v>274</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61" t="s">
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="104" t="s">
         <v>275</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="91"/>
       <c r="M14" s="27" t="s">
         <v>263</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:L9"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="I14:L14"/>
@@ -8348,30 +8373,6 @@
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8394,11 +8395,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="14">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="102" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
     </row>
     <row r="3" spans="2:13" ht="14">
       <c r="B3" s="37" t="s">
@@ -8412,16 +8413,16 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" customHeight="1">
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="106" t="s">
         <v>280</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
-      <c r="K4" s="65" t="s">
+      <c r="H4" s="90"/>
+      <c r="I4" s="91"/>
+      <c r="K4" s="106" t="s">
         <v>281</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="91"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" customHeight="1">
       <c r="B5" s="39" t="s">
@@ -8656,16 +8657,16 @@
       <c r="E13" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="106" t="s">
         <v>318</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
-      <c r="K13" s="65" t="s">
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+      <c r="K13" s="106" t="s">
         <v>319</v>
       </c>
-      <c r="L13" s="49"/>
-      <c r="M13" s="50"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
     </row>
     <row r="14" spans="2:13" ht="15.75" customHeight="1">
       <c r="B14" s="27" t="s">
